--- a/regionseng/5/business sector/by size.xlsx
+++ b/regionseng/5/business sector/by size.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE288C8-8A97-41DA-8085-B18FFEE65332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="45" yWindow="150" windowWidth="14790" windowHeight="13230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
   </numFmts>
@@ -251,6 +252,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -286,6 +304,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -461,11 +496,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -475,7 +510,7 @@
     <col min="16" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -484,19 +519,19 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="4">
         <v>2006</v>
@@ -543,8 +578,14 @@
       <c r="P5" s="5">
         <v>2020</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q5" s="5">
+        <v>2021</v>
+      </c>
+      <c r="R5" s="5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -593,8 +634,14 @@
       <c r="P6" s="7">
         <v>1247.8</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q6" s="7">
+        <v>1449.7</v>
+      </c>
+      <c r="R6" s="7">
+        <v>1357.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -643,8 +690,14 @@
       <c r="P7" s="8">
         <v>449.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="8">
+        <v>628.1</v>
+      </c>
+      <c r="R7" s="8">
+        <v>438.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
@@ -693,8 +746,14 @@
       <c r="P8" s="8">
         <v>265</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="8">
+        <v>281.60000000000002</v>
+      </c>
+      <c r="R8" s="8">
+        <v>320.10000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
@@ -743,13 +802,19 @@
       <c r="P9" s="8">
         <v>533.1</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="8">
+        <v>539.9</v>
+      </c>
+      <c r="R9" s="8">
+        <v>599.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="4">
         <v>2006</v>
@@ -796,8 +861,14 @@
       <c r="P13" s="5">
         <v>2020</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="5">
+        <v>2021</v>
+      </c>
+      <c r="R13" s="5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>6</v>
       </c>
@@ -846,8 +917,14 @@
       <c r="P14" s="7">
         <v>867.9</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="7">
+        <v>1073.2</v>
+      </c>
+      <c r="R14" s="7">
+        <v>998.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>3</v>
       </c>
@@ -896,8 +973,14 @@
       <c r="P15" s="8">
         <v>395.1</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="8">
+        <v>586.9</v>
+      </c>
+      <c r="R15" s="8">
+        <v>419.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>4</v>
       </c>
@@ -946,8 +1029,14 @@
       <c r="P16" s="8">
         <v>205.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="8">
+        <v>222.5</v>
+      </c>
+      <c r="R16" s="8">
+        <v>245.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>5</v>
       </c>
@@ -996,8 +1085,14 @@
       <c r="P17" s="8">
         <v>267.3</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="8">
+        <v>263.8</v>
+      </c>
+      <c r="R17" s="8">
+        <v>334.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>10</v>
       </c>
@@ -1015,7 +1110,7 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="4">
         <v>2006</v>
@@ -1062,8 +1157,14 @@
       <c r="P21" s="5">
         <v>2020</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="5">
+        <v>2021</v>
+      </c>
+      <c r="R21" s="5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>6</v>
       </c>
@@ -1112,8 +1213,14 @@
       <c r="P22" s="9">
         <v>11466.4</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="9">
+        <v>13017</v>
+      </c>
+      <c r="R22" s="9">
+        <v>13462</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1162,8 +1269,14 @@
       <c r="P23" s="10">
         <v>619</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="10">
+        <v>1238</v>
+      </c>
+      <c r="R23" s="10">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>4</v>
       </c>
@@ -1212,8 +1325,14 @@
       <c r="P24" s="10">
         <v>2735</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="10">
+        <v>2239</v>
+      </c>
+      <c r="R24" s="10">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>5</v>
       </c>
@@ -1262,13 +1381,19 @@
       <c r="P25" s="10">
         <v>8112.4</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="10">
+        <v>9541</v>
+      </c>
+      <c r="R25" s="10">
+        <v>9599</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="4">
         <v>2006</v>
@@ -1315,8 +1440,14 @@
       <c r="P29" s="5">
         <v>2020</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="5">
+        <v>2021</v>
+      </c>
+      <c r="R29" s="5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>6</v>
       </c>
@@ -1365,8 +1496,14 @@
       <c r="P30" s="7">
         <v>963.1</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="7">
+        <v>962.4</v>
+      </c>
+      <c r="R30" s="7">
+        <v>1112.4000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>3</v>
       </c>
@@ -1415,8 +1552,14 @@
       <c r="P31" s="8">
         <v>3470.7</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="8">
+        <v>2543</v>
+      </c>
+      <c r="R31" s="8">
+        <v>2873.9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>4</v>
       </c>
@@ -1465,8 +1608,14 @@
       <c r="P32" s="8">
         <v>1044.4000000000001</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="8">
+        <v>1244.5999999999999</v>
+      </c>
+      <c r="R32" s="8">
+        <v>1319.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>5</v>
       </c>
@@ -1514,6 +1663,12 @@
       </c>
       <c r="P33" s="8">
         <v>647.6</v>
+      </c>
+      <c r="Q33" s="8">
+        <v>546.6</v>
+      </c>
+      <c r="R33" s="8">
+        <v>664.9</v>
       </c>
     </row>
   </sheetData>
